--- a/output/DEresult.xlsx
+++ b/output/DEresult.xlsx
@@ -34,130 +34,130 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>A老师</t>
+  </si>
+  <si>
+    <t>F老师</t>
+  </si>
+  <si>
+    <t>M老师</t>
+  </si>
+  <si>
+    <t>Ae老师</t>
+  </si>
+  <si>
+    <t>Q老师</t>
+  </si>
+  <si>
     <t>T老师</t>
   </si>
   <si>
-    <t>A老师</t>
+    <t>E老师</t>
+  </si>
+  <si>
+    <t>P老师</t>
+  </si>
+  <si>
+    <t>Y老师</t>
+  </si>
+  <si>
+    <t>J老师</t>
+  </si>
+  <si>
+    <t>U老师</t>
+  </si>
+  <si>
+    <t>X老师</t>
+  </si>
+  <si>
+    <t>H老师</t>
   </si>
   <si>
     <t>Af老师</t>
   </si>
   <si>
-    <t>F老师</t>
+    <t>Ac老师</t>
+  </si>
+  <si>
+    <t>R老师</t>
+  </si>
+  <si>
+    <t>D老师</t>
+  </si>
+  <si>
+    <t>K老师</t>
   </si>
   <si>
     <t>W老师</t>
   </si>
   <si>
-    <t>Q老师</t>
+    <t>Ag老师</t>
+  </si>
+  <si>
+    <t>C老师</t>
+  </si>
+  <si>
+    <t>Ad老师</t>
+  </si>
+  <si>
+    <t>B老师</t>
+  </si>
+  <si>
+    <t>V老师</t>
+  </si>
+  <si>
+    <t>G老师</t>
+  </si>
+  <si>
+    <t>S老师</t>
+  </si>
+  <si>
+    <t>Aa老师</t>
+  </si>
+  <si>
+    <t>Ab老师</t>
+  </si>
+  <si>
+    <t>L老师</t>
+  </si>
+  <si>
+    <t>I老师</t>
+  </si>
+  <si>
+    <t>Z老师</t>
   </si>
   <si>
     <t>O老师</t>
   </si>
   <si>
-    <t>J老师</t>
-  </si>
-  <si>
-    <t>D老师</t>
-  </si>
-  <si>
-    <t>R老师</t>
-  </si>
-  <si>
-    <t>C老师</t>
-  </si>
-  <si>
-    <t>L老师</t>
-  </si>
-  <si>
-    <t>Aa老师</t>
-  </si>
-  <si>
-    <t>I老师</t>
-  </si>
-  <si>
-    <t>V老师</t>
-  </si>
-  <si>
-    <t>Y老师</t>
-  </si>
-  <si>
-    <t>P老师</t>
-  </si>
-  <si>
-    <t>Ab老师</t>
-  </si>
-  <si>
-    <t>U老师</t>
-  </si>
-  <si>
-    <t>X老师</t>
-  </si>
-  <si>
-    <t>Ac老师</t>
-  </si>
-  <si>
-    <t>Ag老师</t>
-  </si>
-  <si>
-    <t>H老师</t>
-  </si>
-  <si>
-    <t>Z老师</t>
-  </si>
-  <si>
-    <t>E老师</t>
-  </si>
-  <si>
-    <t>Ae老师</t>
-  </si>
-  <si>
-    <t>Ad老师</t>
-  </si>
-  <si>
-    <t>S老师</t>
-  </si>
-  <si>
-    <t>B老师</t>
-  </si>
-  <si>
-    <t>M老师</t>
-  </si>
-  <si>
-    <t>G老师</t>
-  </si>
-  <si>
     <t>N老师</t>
   </si>
   <si>
-    <t>K老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ae老师,
-C老师,
+    <t xml:space="preserve">O老师,
+Af老师,
+Y老师,
+U老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q老师,
+T老师,
+S老师,
+K老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H老师,
 Ab老师,
-Y老师,
+V老师,
+F老师,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A老师,
-G老师,
-F老师,
-B老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ag老师,
-J老师,
-W老师,
-T老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L老师,
-O老师,
-R老师,
-Aa老师,
+    <t xml:space="preserve">W老师,
+P老师,
+Ac老师,
+M老师,
 </t>
   </si>
 </sst>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31402066</v>
+        <v>31402001</v>
       </c>
       <c r="C2">
-        <v>3.711243</v>
+        <v>2.56422</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31402067</v>
+        <v>31402002</v>
       </c>
       <c r="C3">
-        <v>2.198923</v>
+        <v>2.787896</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -584,16 +584,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31402068</v>
+        <v>31402062</v>
       </c>
       <c r="C4">
-        <v>2.043161</v>
+        <v>2.378056</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -604,16 +604,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31402069</v>
+        <v>31402063</v>
       </c>
       <c r="C5">
-        <v>2.810137</v>
+        <v>3.248428</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -624,16 +624,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31402001</v>
+        <v>31402064</v>
       </c>
       <c r="C6">
-        <v>2.56422</v>
+        <v>3.250746</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -644,16 +644,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31402002</v>
+        <v>31402013</v>
       </c>
       <c r="C7">
-        <v>2.787896</v>
+        <v>1.980091</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -664,16 +664,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31402062</v>
+        <v>31402014</v>
       </c>
       <c r="C8">
-        <v>2.378056</v>
+        <v>3.105346</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
@@ -684,16 +684,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31402063</v>
+        <v>31402015</v>
       </c>
       <c r="C9">
-        <v>3.248428</v>
+        <v>2.876825</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -704,16 +704,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31402064</v>
+        <v>31402016</v>
       </c>
       <c r="C10">
-        <v>3.250746</v>
+        <v>2.221068</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -724,16 +724,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31402103</v>
+        <v>31402018</v>
       </c>
       <c r="C11">
-        <v>2.405864</v>
+        <v>2.722936</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -744,16 +744,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31402104</v>
+        <v>31402034</v>
       </c>
       <c r="C12">
-        <v>2.066867</v>
+        <v>3.195427</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -764,16 +764,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31402105</v>
+        <v>31402035</v>
       </c>
       <c r="C13">
-        <v>2.327287</v>
+        <v>2.729503</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -784,16 +784,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31402106</v>
+        <v>31402036</v>
       </c>
       <c r="C14">
-        <v>2.92994</v>
+        <v>3.385987</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -804,16 +804,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31402013</v>
+        <v>31402037</v>
       </c>
       <c r="C15">
-        <v>1.980091</v>
+        <v>2.889759</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -824,16 +824,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31402014</v>
+        <v>31402099</v>
       </c>
       <c r="C16">
-        <v>3.105346</v>
+        <v>2.03597</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -844,16 +844,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31402015</v>
+        <v>31402100</v>
       </c>
       <c r="C17">
-        <v>2.876825</v>
+        <v>3.822373</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -864,16 +864,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31402016</v>
+        <v>31402101</v>
       </c>
       <c r="C18">
-        <v>2.221068</v>
+        <v>2.876221</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -884,16 +884,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31402018</v>
+        <v>31402102</v>
       </c>
       <c r="C19">
-        <v>2.722936</v>
+        <v>2.006024</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -904,16 +904,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31402077</v>
+        <v>31402053</v>
       </c>
       <c r="C20">
-        <v>3.033951</v>
+        <v>3.574038</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -924,16 +924,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31402078</v>
+        <v>31402054</v>
       </c>
       <c r="C21">
-        <v>1.785455</v>
+        <v>2.878221</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -944,16 +944,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31402079</v>
+        <v>31402055</v>
       </c>
       <c r="C22">
-        <v>2.802719</v>
+        <v>2.79624</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -964,16 +964,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31402080</v>
+        <v>31402056</v>
       </c>
       <c r="C23">
-        <v>1.980091</v>
+        <v>2.842877</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31402053</v>
+        <v>31402057</v>
       </c>
       <c r="C24">
-        <v>3.574038</v>
+        <v>3.053205</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1004,16 +1004,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31402054</v>
+        <v>31402058</v>
       </c>
       <c r="C25">
-        <v>2.878221</v>
+        <v>3.158599</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -1024,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31402055</v>
+        <v>31402066</v>
       </c>
       <c r="C26">
-        <v>2.79624</v>
+        <v>3.711243</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1044,16 +1044,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31402056</v>
+        <v>31402067</v>
       </c>
       <c r="C27">
-        <v>2.842877</v>
+        <v>2.198923</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -1064,16 +1064,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>31402057</v>
+        <v>31402068</v>
       </c>
       <c r="C28">
-        <v>3.053205</v>
+        <v>2.043161</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
@@ -1084,16 +1084,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31402058</v>
+        <v>31402069</v>
       </c>
       <c r="C29">
-        <v>3.158599</v>
+        <v>2.810137</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
@@ -1124,16 +1124,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31402040</v>
+        <v>31402011</v>
       </c>
       <c r="C31">
-        <v>2.096884</v>
+        <v>2.059079</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -1144,16 +1144,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31402041</v>
+        <v>31402012</v>
       </c>
       <c r="C32">
-        <v>2.720973</v>
+        <v>3.104776</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -1164,13 +1164,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31402042</v>
+        <v>31402044</v>
       </c>
       <c r="C33">
-        <v>2.088623</v>
+        <v>2.813497</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
@@ -1184,13 +1184,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31402043</v>
+        <v>31402045</v>
       </c>
       <c r="C34">
-        <v>2.743544</v>
+        <v>3.548878</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
@@ -1204,16 +1204,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31402025</v>
+        <v>31402046</v>
       </c>
       <c r="C35">
-        <v>1.785455</v>
+        <v>3.466454</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -1224,16 +1224,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31402026</v>
+        <v>31402047</v>
       </c>
       <c r="C36">
-        <v>2.802719</v>
+        <v>3.352063</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
@@ -1244,16 +1244,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31402027</v>
+        <v>31402082</v>
       </c>
       <c r="C37">
-        <v>3.963973</v>
+        <v>2.691692</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1264,16 +1264,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31402028</v>
+        <v>31402083</v>
       </c>
       <c r="C38">
-        <v>2.946965</v>
+        <v>2.262539</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -1284,16 +1284,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31402029</v>
+        <v>31402084</v>
       </c>
       <c r="C39">
-        <v>3.30639</v>
+        <v>2.006024</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -1304,16 +1304,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31402030</v>
+        <v>31402085</v>
       </c>
       <c r="C40">
-        <v>2.530878</v>
+        <v>2.405864</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -1324,16 +1324,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31402031</v>
+        <v>31402086</v>
       </c>
       <c r="C41">
-        <v>2.69269</v>
+        <v>3.352063</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -1344,16 +1344,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31402048</v>
+        <v>31402087</v>
       </c>
       <c r="C42">
-        <v>2.903145</v>
+        <v>2.327287</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
         <v>40</v>
@@ -1364,16 +1364,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>31402010</v>
+        <v>31402088</v>
       </c>
       <c r="C43">
-        <v>2.088623</v>
+        <v>2.92994</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
         <v>40</v>
@@ -1384,16 +1384,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31402021</v>
+        <v>31402025</v>
       </c>
       <c r="C44">
-        <v>2.56901</v>
+        <v>1.785455</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -1404,16 +1404,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31402022</v>
+        <v>31402026</v>
       </c>
       <c r="C45">
-        <v>3.263522</v>
+        <v>2.802719</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
         <v>40</v>
@@ -1424,16 +1424,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31402023</v>
+        <v>31402027</v>
       </c>
       <c r="C46">
-        <v>3.255346</v>
+        <v>3.963973</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -1444,16 +1444,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31402024</v>
+        <v>31402028</v>
       </c>
       <c r="C47">
-        <v>3.033951</v>
+        <v>2.946965</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>40</v>
@@ -1464,16 +1464,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31402059</v>
+        <v>31402029</v>
       </c>
       <c r="C48">
-        <v>2.722936</v>
+        <v>3.30639</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
         <v>40</v>
@@ -1484,16 +1484,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31402060</v>
+        <v>31402030</v>
       </c>
       <c r="C49">
-        <v>3.072115</v>
+        <v>2.530878</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
         <v>40</v>
@@ -1504,16 +1504,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31402061</v>
+        <v>31402031</v>
       </c>
       <c r="C50">
-        <v>2.606954</v>
+        <v>2.69269</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -1524,16 +1524,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>31402004</v>
+        <v>31402048</v>
       </c>
       <c r="C51">
-        <v>3.711243</v>
+        <v>2.903145</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
         <v>40</v>
@@ -1544,16 +1544,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31402005</v>
+        <v>31402070</v>
       </c>
       <c r="C52">
-        <v>1.964815</v>
+        <v>1.991818</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
         <v>40</v>
@@ -1564,16 +1564,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31402006</v>
+        <v>31402071</v>
       </c>
       <c r="C53">
-        <v>3.105346</v>
+        <v>1.980091</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
         <v>40</v>
@@ -1584,16 +1584,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31402007</v>
+        <v>31402072</v>
       </c>
       <c r="C54">
-        <v>2.353618</v>
+        <v>2.722823</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
         <v>40</v>
@@ -1604,16 +1604,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31402008</v>
+        <v>31402073</v>
       </c>
       <c r="C55">
-        <v>3.963973</v>
+        <v>3.399385</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
         <v>40</v>
@@ -1624,16 +1624,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>31402009</v>
+        <v>31402081</v>
       </c>
       <c r="C56">
-        <v>2.720973</v>
+        <v>2.281346</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
         <v>40</v>
@@ -1644,16 +1644,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>31402033</v>
+        <v>31402019</v>
       </c>
       <c r="C57">
-        <v>2.180731</v>
+        <v>3.072115</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F57" t="s">
         <v>40</v>
@@ -1663,40 +1663,40 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
+      <c r="B58">
+        <v>31402020</v>
+      </c>
+      <c r="C58">
+        <v>2.639936</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>31402090</v>
-      </c>
-      <c r="C59">
-        <v>2.69622</v>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1704,16 +1704,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31402091</v>
+        <v>31402103</v>
       </c>
       <c r="C60">
-        <v>2.800326</v>
+        <v>2.405864</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
@@ -1724,16 +1724,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31402049</v>
+        <v>31402104</v>
       </c>
       <c r="C61">
-        <v>2.610726</v>
+        <v>2.066867</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -1744,16 +1744,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31402050</v>
+        <v>31402105</v>
       </c>
       <c r="C62">
-        <v>2.946965</v>
+        <v>2.327287</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
         <v>41</v>
@@ -1764,16 +1764,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31402051</v>
+        <v>31402106</v>
       </c>
       <c r="C63">
-        <v>3.30639</v>
+        <v>2.92994</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -1784,16 +1784,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>31402052</v>
+        <v>31402097</v>
       </c>
       <c r="C64">
-        <v>2.530878</v>
+        <v>2.56422</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -1804,16 +1804,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31402074</v>
+        <v>31402059</v>
       </c>
       <c r="C65">
-        <v>2.393617</v>
+        <v>2.722936</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -1824,16 +1824,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>31402075</v>
+        <v>31402060</v>
       </c>
       <c r="C66">
-        <v>3.263522</v>
+        <v>3.072115</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
@@ -1844,16 +1844,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>31402076</v>
+        <v>31402061</v>
       </c>
       <c r="C67">
-        <v>3.255346</v>
+        <v>2.606954</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
@@ -1864,16 +1864,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31402082</v>
+        <v>31402010</v>
       </c>
       <c r="C68">
-        <v>2.691692</v>
+        <v>2.088623</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -1884,16 +1884,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31402083</v>
+        <v>31402021</v>
       </c>
       <c r="C69">
-        <v>2.262539</v>
+        <v>2.56901</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -1904,16 +1904,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31402084</v>
+        <v>31402022</v>
       </c>
       <c r="C70">
-        <v>2.006024</v>
+        <v>3.263522</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
         <v>41</v>
@@ -1924,16 +1924,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31402085</v>
+        <v>31402023</v>
       </c>
       <c r="C71">
-        <v>2.405864</v>
+        <v>3.255346</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
         <v>41</v>
@@ -1944,16 +1944,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31402086</v>
+        <v>31402024</v>
       </c>
       <c r="C72">
-        <v>3.352063</v>
+        <v>3.033951</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
         <v>41</v>
@@ -1964,16 +1964,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31402087</v>
+        <v>31402032</v>
       </c>
       <c r="C73">
-        <v>2.327287</v>
+        <v>2.570303</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
         <v>41</v>
@@ -1984,16 +1984,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>31402088</v>
+        <v>31402096</v>
       </c>
       <c r="C74">
-        <v>2.92994</v>
+        <v>2.720195</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
         <v>41</v>
@@ -2004,16 +2004,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>31402044</v>
+        <v>31402077</v>
       </c>
       <c r="C75">
-        <v>2.813497</v>
+        <v>3.033951</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
         <v>41</v>
@@ -2024,16 +2024,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>31402045</v>
+        <v>31402078</v>
       </c>
       <c r="C76">
-        <v>3.548878</v>
+        <v>1.785455</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
         <v>41</v>
@@ -2044,16 +2044,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>31402046</v>
+        <v>31402079</v>
       </c>
       <c r="C77">
-        <v>3.466454</v>
+        <v>2.802719</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
         <v>41</v>
@@ -2064,16 +2064,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31402047</v>
+        <v>31402080</v>
       </c>
       <c r="C78">
-        <v>3.352063</v>
+        <v>1.980091</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
@@ -2084,16 +2084,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31402092</v>
+        <v>31402107</v>
       </c>
       <c r="C79">
-        <v>3.287667</v>
+        <v>1.966361</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
         <v>41</v>
@@ -2104,16 +2104,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31402093</v>
+        <v>31402108</v>
       </c>
       <c r="C80">
-        <v>2.743544</v>
+        <v>2.69622</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
@@ -2124,16 +2124,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31402094</v>
+        <v>31402109</v>
       </c>
       <c r="C81">
-        <v>2.813497</v>
+        <v>3.466454</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
@@ -2144,16 +2144,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31402095</v>
+        <v>31402004</v>
       </c>
       <c r="C82">
-        <v>3.963973</v>
+        <v>3.711243</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F82" t="s">
         <v>41</v>
@@ -2164,16 +2164,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31402070</v>
+        <v>31402005</v>
       </c>
       <c r="C83">
-        <v>1.991818</v>
+        <v>1.964815</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
         <v>41</v>
@@ -2184,16 +2184,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31402071</v>
+        <v>31402006</v>
       </c>
       <c r="C84">
-        <v>1.980091</v>
+        <v>3.105346</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
         <v>41</v>
@@ -2204,16 +2204,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>31402072</v>
+        <v>31402007</v>
       </c>
       <c r="C85">
-        <v>2.722823</v>
+        <v>2.353618</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
         <v>41</v>
@@ -2224,16 +2224,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>31402073</v>
+        <v>31402008</v>
       </c>
       <c r="C86">
-        <v>3.399385</v>
+        <v>3.963973</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -2243,40 +2243,40 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
+      <c r="B87">
+        <v>31402009</v>
+      </c>
+      <c r="C87">
+        <v>2.720973</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>31402081</v>
-      </c>
-      <c r="C88">
-        <v>2.281346</v>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31402097</v>
+        <v>31402098</v>
       </c>
       <c r="C89">
-        <v>2.56422</v>
+        <v>2.787896</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -2304,16 +2304,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31402107</v>
+        <v>31402003</v>
       </c>
       <c r="C90">
-        <v>1.966361</v>
+        <v>2.03597</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -2324,16 +2324,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31402108</v>
+        <v>31402074</v>
       </c>
       <c r="C91">
-        <v>2.69622</v>
+        <v>2.393617</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -2344,16 +2344,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31402109</v>
+        <v>31402075</v>
       </c>
       <c r="C92">
-        <v>3.466454</v>
+        <v>3.263522</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -2364,16 +2364,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31402019</v>
+        <v>31402076</v>
       </c>
       <c r="C93">
-        <v>3.072115</v>
+        <v>3.255346</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -2384,16 +2384,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31402020</v>
+        <v>31402017</v>
       </c>
       <c r="C94">
-        <v>2.639936</v>
+        <v>3.158599</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -2404,16 +2404,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31402089</v>
+        <v>31402110</v>
       </c>
       <c r="C95">
-        <v>1.966361</v>
+        <v>3.352063</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -2424,16 +2424,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31402011</v>
+        <v>31402111</v>
       </c>
       <c r="C96">
-        <v>2.059079</v>
+        <v>1.966361</v>
       </c>
       <c r="D96" t="s">
         <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -2444,16 +2444,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31402012</v>
+        <v>31402065</v>
       </c>
       <c r="C97">
-        <v>3.104776</v>
+        <v>2.977976</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -2464,16 +2464,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31402099</v>
+        <v>31402090</v>
       </c>
       <c r="C98">
-        <v>2.03597</v>
+        <v>2.69622</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -2484,16 +2484,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31402100</v>
+        <v>31402091</v>
       </c>
       <c r="C99">
-        <v>3.822373</v>
+        <v>2.800326</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -2504,16 +2504,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31402101</v>
+        <v>31402092</v>
       </c>
       <c r="C100">
-        <v>2.876221</v>
+        <v>3.287667</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -2524,16 +2524,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31402102</v>
+        <v>31402093</v>
       </c>
       <c r="C101">
-        <v>2.006024</v>
+        <v>2.743544</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -2544,16 +2544,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31402098</v>
+        <v>31402094</v>
       </c>
       <c r="C102">
-        <v>2.787896</v>
+        <v>2.813497</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -2564,16 +2564,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31402065</v>
+        <v>31402095</v>
       </c>
       <c r="C103">
-        <v>2.977976</v>
+        <v>3.963973</v>
       </c>
       <c r="D103" t="s">
         <v>33</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -2584,16 +2584,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31402003</v>
+        <v>31402033</v>
       </c>
       <c r="C104">
-        <v>2.03597</v>
+        <v>2.180731</v>
       </c>
       <c r="D104" t="s">
         <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -2604,16 +2604,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31402034</v>
+        <v>31402049</v>
       </c>
       <c r="C105">
-        <v>3.195427</v>
+        <v>2.610726</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -2624,16 +2624,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>31402035</v>
+        <v>31402050</v>
       </c>
       <c r="C106">
-        <v>2.729503</v>
+        <v>2.946965</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -2644,16 +2644,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31402036</v>
+        <v>31402051</v>
       </c>
       <c r="C107">
-        <v>3.385987</v>
+        <v>3.30639</v>
       </c>
       <c r="D107" t="s">
         <v>35</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -2664,16 +2664,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31402037</v>
+        <v>31402052</v>
       </c>
       <c r="C108">
-        <v>2.889759</v>
+        <v>2.530878</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -2684,16 +2684,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>31402017</v>
+        <v>31402089</v>
       </c>
       <c r="C109">
-        <v>3.158599</v>
+        <v>1.966361</v>
       </c>
       <c r="D109" t="s">
         <v>36</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -2704,16 +2704,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>31402110</v>
+        <v>31402040</v>
       </c>
       <c r="C110">
-        <v>3.352063</v>
+        <v>2.096884</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -2724,16 +2724,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>31402111</v>
+        <v>31402041</v>
       </c>
       <c r="C111">
-        <v>1.966361</v>
+        <v>2.720973</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -2744,16 +2744,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31402038</v>
+        <v>31402042</v>
       </c>
       <c r="C112">
-        <v>2.935714</v>
+        <v>2.088623</v>
       </c>
       <c r="D112" t="s">
         <v>37</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -2764,16 +2764,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31402039</v>
+        <v>31402043</v>
       </c>
       <c r="C113">
-        <v>3.290705</v>
+        <v>2.743544</v>
       </c>
       <c r="D113" t="s">
         <v>37</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -2784,16 +2784,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>31402032</v>
+        <v>31402038</v>
       </c>
       <c r="C114">
-        <v>2.570303</v>
+        <v>2.935714</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -2804,16 +2804,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31402096</v>
+        <v>31402039</v>
       </c>
       <c r="C115">
-        <v>2.720195</v>
+        <v>3.290705</v>
       </c>
       <c r="D115" t="s">
         <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>

--- a/output/DEresult.xlsx
+++ b/output/DEresult.xlsx
@@ -34,130 +34,130 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>G老师</t>
+  </si>
+  <si>
+    <t>Ab老师</t>
+  </si>
+  <si>
+    <t>F老师</t>
+  </si>
+  <si>
+    <t>Ae老师</t>
+  </si>
+  <si>
+    <t>V老师</t>
+  </si>
+  <si>
+    <t>B老师</t>
+  </si>
+  <si>
+    <t>I老师</t>
+  </si>
+  <si>
+    <t>Aa老师</t>
+  </si>
+  <si>
+    <t>J老师</t>
+  </si>
+  <si>
+    <t>Af老师</t>
+  </si>
+  <si>
+    <t>S老师</t>
+  </si>
+  <si>
+    <t>M老师</t>
+  </si>
+  <si>
+    <t>C老师</t>
+  </si>
+  <si>
+    <t>D老师</t>
+  </si>
+  <si>
+    <t>Ad老师</t>
+  </si>
+  <si>
+    <t>Z老师</t>
+  </si>
+  <si>
+    <t>R老师</t>
+  </si>
+  <si>
+    <t>K老师</t>
+  </si>
+  <si>
     <t>A老师</t>
   </si>
   <si>
-    <t>F老师</t>
-  </si>
-  <si>
-    <t>M老师</t>
-  </si>
-  <si>
-    <t>Ae老师</t>
+    <t>Y老师</t>
+  </si>
+  <si>
+    <t>W老师</t>
+  </si>
+  <si>
+    <t>T老师</t>
+  </si>
+  <si>
+    <t>X老师</t>
+  </si>
+  <si>
+    <t>N老师</t>
+  </si>
+  <si>
+    <t>O老师</t>
+  </si>
+  <si>
+    <t>P老师</t>
+  </si>
+  <si>
+    <t>H老师</t>
+  </si>
+  <si>
+    <t>Ac老师</t>
+  </si>
+  <si>
+    <t>U老师</t>
+  </si>
+  <si>
+    <t>Ag老师</t>
+  </si>
+  <si>
+    <t>L老师</t>
+  </si>
+  <si>
+    <t>E老师</t>
   </si>
   <si>
     <t>Q老师</t>
   </si>
   <si>
-    <t>T老师</t>
-  </si>
-  <si>
-    <t>E老师</t>
-  </si>
-  <si>
-    <t>P老师</t>
-  </si>
-  <si>
-    <t>Y老师</t>
-  </si>
-  <si>
-    <t>J老师</t>
-  </si>
-  <si>
-    <t>U老师</t>
-  </si>
-  <si>
-    <t>X老师</t>
-  </si>
-  <si>
-    <t>H老师</t>
-  </si>
-  <si>
-    <t>Af老师</t>
-  </si>
-  <si>
-    <t>Ac老师</t>
-  </si>
-  <si>
-    <t>R老师</t>
-  </si>
-  <si>
-    <t>D老师</t>
-  </si>
-  <si>
-    <t>K老师</t>
-  </si>
-  <si>
-    <t>W老师</t>
-  </si>
-  <si>
-    <t>Ag老师</t>
-  </si>
-  <si>
-    <t>C老师</t>
-  </si>
-  <si>
-    <t>Ad老师</t>
-  </si>
-  <si>
-    <t>B老师</t>
-  </si>
-  <si>
-    <t>V老师</t>
-  </si>
-  <si>
-    <t>G老师</t>
-  </si>
-  <si>
-    <t>S老师</t>
-  </si>
-  <si>
-    <t>Aa老师</t>
-  </si>
-  <si>
-    <t>Ab老师</t>
-  </si>
-  <si>
-    <t>L老师</t>
-  </si>
-  <si>
-    <t>I老师</t>
-  </si>
-  <si>
-    <t>Z老师</t>
-  </si>
-  <si>
-    <t>O老师</t>
-  </si>
-  <si>
-    <t>N老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O老师,
-Af老师,
+    <t xml:space="preserve">Ag老师,
+L老师,
+P老师,
+N老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X老师,
+O老师,
+F老师,
+A老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J老师,
+Ab老师,
+U老师,
+S老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V老师,
+B老师,
+Ad老师,
 Y老师,
-U老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q老师,
-T老师,
-S老师,
-K老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H老师,
-Ab老师,
-V老师,
-F老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W老师,
-P老师,
-Ac老师,
-M老师,
 </t>
   </si>
 </sst>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31402001</v>
+        <v>31402017</v>
       </c>
       <c r="C2">
-        <v>2.56422</v>
+        <v>3.158599</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -564,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31402002</v>
+        <v>31402110</v>
       </c>
       <c r="C3">
-        <v>2.787896</v>
+        <v>3.352063</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -584,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31402062</v>
+        <v>31402111</v>
       </c>
       <c r="C4">
-        <v>2.378056</v>
+        <v>1.966361</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -604,16 +604,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31402063</v>
+        <v>31402092</v>
       </c>
       <c r="C5">
-        <v>3.248428</v>
+        <v>3.287667</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -624,16 +624,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31402064</v>
+        <v>31402093</v>
       </c>
       <c r="C6">
-        <v>3.250746</v>
+        <v>2.743544</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -644,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31402013</v>
+        <v>31402094</v>
       </c>
       <c r="C7">
-        <v>1.980091</v>
+        <v>2.813497</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -664,10 +664,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31402014</v>
+        <v>31402095</v>
       </c>
       <c r="C8">
-        <v>3.105346</v>
+        <v>3.963973</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -684,16 +684,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31402015</v>
+        <v>31402013</v>
       </c>
       <c r="C9">
-        <v>2.876825</v>
+        <v>1.980091</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -704,16 +704,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31402016</v>
+        <v>31402014</v>
       </c>
       <c r="C10">
-        <v>2.221068</v>
+        <v>3.105346</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -724,16 +724,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31402018</v>
+        <v>31402015</v>
       </c>
       <c r="C11">
-        <v>2.722936</v>
+        <v>2.876825</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -744,16 +744,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31402034</v>
+        <v>31402016</v>
       </c>
       <c r="C12">
-        <v>3.195427</v>
+        <v>2.221068</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -764,16 +764,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31402035</v>
+        <v>31402018</v>
       </c>
       <c r="C13">
-        <v>2.729503</v>
+        <v>2.722936</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -784,16 +784,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31402036</v>
+        <v>31402099</v>
       </c>
       <c r="C14">
-        <v>3.385987</v>
+        <v>2.03597</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -804,16 +804,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31402037</v>
+        <v>31402100</v>
       </c>
       <c r="C15">
-        <v>2.889759</v>
+        <v>3.822373</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -824,16 +824,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31402099</v>
+        <v>31402101</v>
       </c>
       <c r="C16">
-        <v>2.03597</v>
+        <v>2.876221</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -844,16 +844,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31402100</v>
+        <v>31402102</v>
       </c>
       <c r="C17">
-        <v>3.822373</v>
+        <v>2.006024</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -864,16 +864,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31402101</v>
+        <v>31402074</v>
       </c>
       <c r="C18">
-        <v>2.876221</v>
+        <v>2.393617</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -884,16 +884,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31402102</v>
+        <v>31402075</v>
       </c>
       <c r="C19">
-        <v>2.006024</v>
+        <v>3.263522</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -904,16 +904,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31402053</v>
+        <v>31402076</v>
       </c>
       <c r="C20">
-        <v>3.574038</v>
+        <v>3.255346</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -924,16 +924,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31402054</v>
+        <v>31402003</v>
       </c>
       <c r="C21">
-        <v>2.878221</v>
+        <v>2.03597</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -944,16 +944,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31402055</v>
+        <v>31402049</v>
       </c>
       <c r="C22">
-        <v>2.79624</v>
+        <v>2.610726</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -964,16 +964,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31402056</v>
+        <v>31402050</v>
       </c>
       <c r="C23">
-        <v>2.842877</v>
+        <v>2.946965</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31402057</v>
+        <v>31402051</v>
       </c>
       <c r="C24">
-        <v>3.053205</v>
+        <v>3.30639</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1004,16 +1004,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31402058</v>
+        <v>31402052</v>
       </c>
       <c r="C25">
-        <v>3.158599</v>
+        <v>2.530878</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -1024,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31402066</v>
+        <v>31402090</v>
       </c>
       <c r="C26">
-        <v>3.711243</v>
+        <v>2.69622</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1044,16 +1044,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31402067</v>
+        <v>31402091</v>
       </c>
       <c r="C27">
-        <v>2.198923</v>
+        <v>2.800326</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -1063,20 +1063,20 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>31402068</v>
-      </c>
-      <c r="C28">
-        <v>2.043161</v>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1084,39 +1084,39 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31402069</v>
+        <v>31402025</v>
       </c>
       <c r="C29">
-        <v>2.810137</v>
+        <v>1.785455</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
+      <c r="B30">
+        <v>31402026</v>
+      </c>
+      <c r="C30">
+        <v>2.802719</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1124,16 +1124,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31402011</v>
+        <v>31402027</v>
       </c>
       <c r="C31">
-        <v>2.059079</v>
+        <v>3.963973</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -1144,16 +1144,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31402012</v>
+        <v>31402028</v>
       </c>
       <c r="C32">
-        <v>3.104776</v>
+        <v>2.946965</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -1164,16 +1164,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31402044</v>
+        <v>31402029</v>
       </c>
       <c r="C33">
-        <v>2.813497</v>
+        <v>3.30639</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
         <v>40</v>
@@ -1184,16 +1184,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31402045</v>
+        <v>31402030</v>
       </c>
       <c r="C34">
-        <v>3.548878</v>
+        <v>2.530878</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
@@ -1204,16 +1204,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31402046</v>
+        <v>31402031</v>
       </c>
       <c r="C35">
-        <v>3.466454</v>
+        <v>2.69269</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -1224,16 +1224,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31402047</v>
+        <v>31402048</v>
       </c>
       <c r="C36">
-        <v>3.352063</v>
+        <v>2.903145</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
@@ -1244,16 +1244,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31402082</v>
+        <v>31402103</v>
       </c>
       <c r="C37">
-        <v>2.691692</v>
+        <v>2.405864</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1264,16 +1264,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31402083</v>
+        <v>31402104</v>
       </c>
       <c r="C38">
-        <v>2.262539</v>
+        <v>2.066867</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -1284,16 +1284,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31402084</v>
+        <v>31402105</v>
       </c>
       <c r="C39">
-        <v>2.006024</v>
+        <v>2.327287</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -1304,16 +1304,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31402085</v>
+        <v>31402106</v>
       </c>
       <c r="C40">
-        <v>2.405864</v>
+        <v>2.92994</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -1324,16 +1324,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31402086</v>
+        <v>31402065</v>
       </c>
       <c r="C41">
-        <v>3.352063</v>
+        <v>2.977976</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -1344,16 +1344,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31402087</v>
+        <v>31402034</v>
       </c>
       <c r="C42">
-        <v>2.327287</v>
+        <v>3.195427</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
         <v>40</v>
@@ -1364,16 +1364,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>31402088</v>
+        <v>31402035</v>
       </c>
       <c r="C43">
-        <v>2.92994</v>
+        <v>2.729503</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
         <v>40</v>
@@ -1384,16 +1384,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31402025</v>
+        <v>31402036</v>
       </c>
       <c r="C44">
-        <v>1.785455</v>
+        <v>3.385987</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -1404,16 +1404,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31402026</v>
+        <v>31402037</v>
       </c>
       <c r="C45">
-        <v>2.802719</v>
+        <v>2.889759</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
         <v>40</v>
@@ -1424,16 +1424,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31402027</v>
+        <v>31402004</v>
       </c>
       <c r="C46">
-        <v>3.963973</v>
+        <v>3.711243</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -1444,16 +1444,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31402028</v>
+        <v>31402005</v>
       </c>
       <c r="C47">
-        <v>2.946965</v>
+        <v>1.964815</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
         <v>40</v>
@@ -1464,16 +1464,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31402029</v>
+        <v>31402006</v>
       </c>
       <c r="C48">
-        <v>3.30639</v>
+        <v>3.105346</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
         <v>40</v>
@@ -1484,16 +1484,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31402030</v>
+        <v>31402007</v>
       </c>
       <c r="C49">
-        <v>2.530878</v>
+        <v>2.353618</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
         <v>40</v>
@@ -1504,16 +1504,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31402031</v>
+        <v>31402008</v>
       </c>
       <c r="C50">
-        <v>2.69269</v>
+        <v>3.963973</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -1524,16 +1524,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>31402048</v>
+        <v>31402009</v>
       </c>
       <c r="C51">
-        <v>2.903145</v>
+        <v>2.720973</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
         <v>40</v>
@@ -1544,16 +1544,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31402070</v>
+        <v>31402010</v>
       </c>
       <c r="C52">
-        <v>1.991818</v>
+        <v>2.088623</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
         <v>40</v>
@@ -1564,16 +1564,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31402071</v>
+        <v>31402021</v>
       </c>
       <c r="C53">
-        <v>1.980091</v>
+        <v>2.56901</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
         <v>40</v>
@@ -1584,16 +1584,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31402072</v>
+        <v>31402022</v>
       </c>
       <c r="C54">
-        <v>2.722823</v>
+        <v>3.263522</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
         <v>40</v>
@@ -1604,16 +1604,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31402073</v>
+        <v>31402023</v>
       </c>
       <c r="C55">
-        <v>3.399385</v>
+        <v>3.255346</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
         <v>40</v>
@@ -1624,16 +1624,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>31402081</v>
+        <v>31402024</v>
       </c>
       <c r="C56">
-        <v>2.281346</v>
+        <v>3.033951</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F56" t="s">
         <v>40</v>
@@ -1643,20 +1643,20 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>31402019</v>
-      </c>
-      <c r="C57">
-        <v>3.072115</v>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1664,39 +1664,39 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31402020</v>
+        <v>31402098</v>
       </c>
       <c r="C58">
-        <v>2.639936</v>
+        <v>2.787896</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
+      <c r="B59">
+        <v>31402089</v>
+      </c>
+      <c r="C59">
+        <v>1.966361</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1704,16 +1704,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31402103</v>
+        <v>31402059</v>
       </c>
       <c r="C60">
-        <v>2.405864</v>
+        <v>2.722936</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
@@ -1724,16 +1724,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31402104</v>
+        <v>31402060</v>
       </c>
       <c r="C61">
-        <v>2.066867</v>
+        <v>3.072115</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -1744,16 +1744,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31402105</v>
+        <v>31402061</v>
       </c>
       <c r="C62">
-        <v>2.327287</v>
+        <v>2.606954</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
         <v>41</v>
@@ -1764,16 +1764,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31402106</v>
+        <v>31402032</v>
       </c>
       <c r="C63">
-        <v>2.92994</v>
+        <v>2.570303</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -1784,16 +1784,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>31402097</v>
+        <v>31402096</v>
       </c>
       <c r="C64">
-        <v>2.56422</v>
+        <v>2.720195</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -1804,16 +1804,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31402059</v>
+        <v>31402001</v>
       </c>
       <c r="C65">
-        <v>2.722936</v>
+        <v>2.56422</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
         <v>41</v>
@@ -1824,16 +1824,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>31402060</v>
+        <v>31402002</v>
       </c>
       <c r="C66">
-        <v>3.072115</v>
+        <v>2.787896</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>41</v>
@@ -1844,16 +1844,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>31402061</v>
+        <v>31402062</v>
       </c>
       <c r="C67">
-        <v>2.606954</v>
+        <v>2.378056</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
@@ -1864,16 +1864,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31402010</v>
+        <v>31402063</v>
       </c>
       <c r="C68">
-        <v>2.088623</v>
+        <v>3.248428</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -1884,16 +1884,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31402021</v>
+        <v>31402064</v>
       </c>
       <c r="C69">
-        <v>2.56901</v>
+        <v>3.250746</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -1904,16 +1904,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31402022</v>
+        <v>31402082</v>
       </c>
       <c r="C70">
-        <v>3.263522</v>
+        <v>2.691692</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
         <v>41</v>
@@ -1924,16 +1924,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31402023</v>
+        <v>31402083</v>
       </c>
       <c r="C71">
-        <v>3.255346</v>
+        <v>2.262539</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
         <v>41</v>
@@ -1944,16 +1944,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31402024</v>
+        <v>31402084</v>
       </c>
       <c r="C72">
-        <v>3.033951</v>
+        <v>2.006024</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
         <v>41</v>
@@ -1964,16 +1964,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31402032</v>
+        <v>31402085</v>
       </c>
       <c r="C73">
-        <v>2.570303</v>
+        <v>2.405864</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
         <v>41</v>
@@ -1984,16 +1984,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>31402096</v>
+        <v>31402086</v>
       </c>
       <c r="C74">
-        <v>2.720195</v>
+        <v>3.352063</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
         <v>41</v>
@@ -2004,16 +2004,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>31402077</v>
+        <v>31402087</v>
       </c>
       <c r="C75">
-        <v>3.033951</v>
+        <v>2.327287</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
         <v>41</v>
@@ -2024,16 +2024,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>31402078</v>
+        <v>31402088</v>
       </c>
       <c r="C76">
-        <v>1.785455</v>
+        <v>2.92994</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
         <v>41</v>
@@ -2044,16 +2044,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>31402079</v>
+        <v>31402077</v>
       </c>
       <c r="C77">
-        <v>2.802719</v>
+        <v>3.033951</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F77" t="s">
         <v>41</v>
@@ -2064,16 +2064,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31402080</v>
+        <v>31402078</v>
       </c>
       <c r="C78">
-        <v>1.980091</v>
+        <v>1.785455</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
@@ -2084,16 +2084,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31402107</v>
+        <v>31402079</v>
       </c>
       <c r="C79">
-        <v>1.966361</v>
+        <v>2.802719</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
         <v>41</v>
@@ -2104,16 +2104,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31402108</v>
+        <v>31402080</v>
       </c>
       <c r="C80">
-        <v>2.69622</v>
+        <v>1.980091</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
@@ -2124,16 +2124,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31402109</v>
+        <v>31402066</v>
       </c>
       <c r="C81">
-        <v>3.466454</v>
+        <v>3.711243</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
@@ -2144,16 +2144,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31402004</v>
+        <v>31402067</v>
       </c>
       <c r="C82">
-        <v>3.711243</v>
+        <v>2.198923</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
         <v>41</v>
@@ -2164,16 +2164,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31402005</v>
+        <v>31402068</v>
       </c>
       <c r="C83">
-        <v>1.964815</v>
+        <v>2.043161</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
         <v>41</v>
@@ -2184,16 +2184,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31402006</v>
+        <v>31402069</v>
       </c>
       <c r="C84">
-        <v>3.105346</v>
+        <v>2.810137</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
         <v>41</v>
@@ -2204,16 +2204,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>31402007</v>
+        <v>31402081</v>
       </c>
       <c r="C85">
-        <v>2.353618</v>
+        <v>2.281346</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
         <v>41</v>
@@ -2223,20 +2223,20 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>31402008</v>
-      </c>
-      <c r="C86">
-        <v>3.963973</v>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2244,39 +2244,39 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31402009</v>
+        <v>31402038</v>
       </c>
       <c r="C87">
-        <v>2.720973</v>
+        <v>2.935714</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
+      <c r="B88">
+        <v>31402039</v>
+      </c>
+      <c r="C88">
+        <v>3.290705</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2284,16 +2284,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31402098</v>
+        <v>31402040</v>
       </c>
       <c r="C89">
-        <v>2.787896</v>
+        <v>2.096884</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -2304,16 +2304,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31402003</v>
+        <v>31402041</v>
       </c>
       <c r="C90">
-        <v>2.03597</v>
+        <v>2.720973</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -2324,16 +2324,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31402074</v>
+        <v>31402042</v>
       </c>
       <c r="C91">
-        <v>2.393617</v>
+        <v>2.088623</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -2344,16 +2344,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31402075</v>
+        <v>31402043</v>
       </c>
       <c r="C92">
-        <v>3.263522</v>
+        <v>2.743544</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -2364,16 +2364,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31402076</v>
+        <v>31402044</v>
       </c>
       <c r="C93">
-        <v>3.255346</v>
+        <v>2.813497</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -2384,16 +2384,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31402017</v>
+        <v>31402045</v>
       </c>
       <c r="C94">
-        <v>3.158599</v>
+        <v>3.548878</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -2404,16 +2404,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31402110</v>
+        <v>31402046</v>
       </c>
       <c r="C95">
-        <v>3.352063</v>
+        <v>3.466454</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -2424,16 +2424,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31402111</v>
+        <v>31402047</v>
       </c>
       <c r="C96">
-        <v>1.966361</v>
+        <v>3.352063</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -2444,16 +2444,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31402065</v>
+        <v>31402019</v>
       </c>
       <c r="C97">
-        <v>2.977976</v>
+        <v>3.072115</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -2464,16 +2464,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31402090</v>
+        <v>31402020</v>
       </c>
       <c r="C98">
-        <v>2.69622</v>
+        <v>2.639936</v>
       </c>
       <c r="D98" t="s">
         <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -2484,16 +2484,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31402091</v>
+        <v>31402097</v>
       </c>
       <c r="C99">
-        <v>2.800326</v>
+        <v>2.56422</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -2504,16 +2504,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31402092</v>
+        <v>31402070</v>
       </c>
       <c r="C100">
-        <v>3.287667</v>
+        <v>1.991818</v>
       </c>
       <c r="D100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -2524,16 +2524,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31402093</v>
+        <v>31402071</v>
       </c>
       <c r="C101">
-        <v>2.743544</v>
+        <v>1.980091</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -2544,16 +2544,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31402094</v>
+        <v>31402072</v>
       </c>
       <c r="C102">
-        <v>2.813497</v>
+        <v>2.722823</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -2564,16 +2564,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31402095</v>
+        <v>31402073</v>
       </c>
       <c r="C103">
-        <v>3.963973</v>
+        <v>3.399385</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -2584,16 +2584,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31402033</v>
+        <v>31402107</v>
       </c>
       <c r="C104">
-        <v>2.180731</v>
+        <v>1.966361</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -2604,16 +2604,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31402049</v>
+        <v>31402108</v>
       </c>
       <c r="C105">
-        <v>2.610726</v>
+        <v>2.69622</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -2624,16 +2624,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>31402050</v>
+        <v>31402109</v>
       </c>
       <c r="C106">
-        <v>2.946965</v>
+        <v>3.466454</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -2644,16 +2644,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31402051</v>
+        <v>31402033</v>
       </c>
       <c r="C107">
-        <v>3.30639</v>
+        <v>2.180731</v>
       </c>
       <c r="D107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -2664,16 +2664,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31402052</v>
+        <v>31402011</v>
       </c>
       <c r="C108">
-        <v>2.530878</v>
+        <v>2.059079</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -2684,13 +2684,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>31402089</v>
+        <v>31402012</v>
       </c>
       <c r="C109">
-        <v>1.966361</v>
+        <v>3.104776</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E109" t="s">
         <v>20</v>
@@ -2704,16 +2704,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>31402040</v>
+        <v>31402053</v>
       </c>
       <c r="C110">
-        <v>2.096884</v>
+        <v>3.574038</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -2724,16 +2724,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>31402041</v>
+        <v>31402054</v>
       </c>
       <c r="C111">
-        <v>2.720973</v>
+        <v>2.878221</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -2744,16 +2744,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31402042</v>
+        <v>31402055</v>
       </c>
       <c r="C112">
-        <v>2.088623</v>
+        <v>2.79624</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -2764,16 +2764,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31402043</v>
+        <v>31402056</v>
       </c>
       <c r="C113">
-        <v>2.743544</v>
+        <v>2.842877</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -2784,16 +2784,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>31402038</v>
+        <v>31402057</v>
       </c>
       <c r="C114">
-        <v>2.935714</v>
+        <v>3.053205</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -2804,16 +2804,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31402039</v>
+        <v>31402058</v>
       </c>
       <c r="C115">
-        <v>3.290705</v>
+        <v>3.158599</v>
       </c>
       <c r="D115" t="s">
         <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>

--- a/output/DEresult.xlsx
+++ b/output/DEresult.xlsx
@@ -34,130 +34,130 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>J老师</t>
+  </si>
+  <si>
+    <t>V老师</t>
+  </si>
+  <si>
+    <t>K老师</t>
+  </si>
+  <si>
+    <t>E老师</t>
+  </si>
+  <si>
+    <t>T老师</t>
+  </si>
+  <si>
+    <t>F老师</t>
+  </si>
+  <si>
+    <t>P老师</t>
+  </si>
+  <si>
+    <t>Ag老师</t>
+  </si>
+  <si>
+    <t>Ae老师</t>
+  </si>
+  <si>
+    <t>U老师</t>
+  </si>
+  <si>
+    <t>M老师</t>
+  </si>
+  <si>
+    <t>O老师</t>
+  </si>
+  <si>
+    <t>A老师</t>
+  </si>
+  <si>
+    <t>Ab老师</t>
+  </si>
+  <si>
+    <t>R老师</t>
+  </si>
+  <si>
+    <t>W老师</t>
+  </si>
+  <si>
+    <t>Q老师</t>
+  </si>
+  <si>
+    <t>H老师</t>
+  </si>
+  <si>
+    <t>Y老师</t>
+  </si>
+  <si>
+    <t>S老师</t>
+  </si>
+  <si>
+    <t>L老师</t>
+  </si>
+  <si>
+    <t>X老师</t>
+  </si>
+  <si>
+    <t>N老师</t>
+  </si>
+  <si>
+    <t>B老师</t>
+  </si>
+  <si>
+    <t>I老师</t>
+  </si>
+  <si>
+    <t>Af老师</t>
+  </si>
+  <si>
+    <t>Ac老师</t>
+  </si>
+  <si>
+    <t>D老师</t>
+  </si>
+  <si>
     <t>G老师</t>
   </si>
   <si>
-    <t>Ab老师</t>
-  </si>
-  <si>
-    <t>F老师</t>
-  </si>
-  <si>
-    <t>Ae老师</t>
-  </si>
-  <si>
-    <t>V老师</t>
-  </si>
-  <si>
-    <t>B老师</t>
-  </si>
-  <si>
-    <t>I老师</t>
+    <t>C老师</t>
+  </si>
+  <si>
+    <t>Ad老师</t>
+  </si>
+  <si>
+    <t>Z老师</t>
   </si>
   <si>
     <t>Aa老师</t>
   </si>
   <si>
-    <t>J老师</t>
-  </si>
-  <si>
-    <t>Af老师</t>
-  </si>
-  <si>
-    <t>S老师</t>
-  </si>
-  <si>
-    <t>M老师</t>
-  </si>
-  <si>
-    <t>C老师</t>
-  </si>
-  <si>
-    <t>D老师</t>
-  </si>
-  <si>
-    <t>Ad老师</t>
-  </si>
-  <si>
-    <t>Z老师</t>
-  </si>
-  <si>
-    <t>R老师</t>
-  </si>
-  <si>
-    <t>K老师</t>
-  </si>
-  <si>
-    <t>A老师</t>
-  </si>
-  <si>
-    <t>Y老师</t>
-  </si>
-  <si>
-    <t>W老师</t>
-  </si>
-  <si>
-    <t>T老师</t>
-  </si>
-  <si>
-    <t>X老师</t>
-  </si>
-  <si>
-    <t>N老师</t>
-  </si>
-  <si>
-    <t>O老师</t>
-  </si>
-  <si>
-    <t>P老师</t>
-  </si>
-  <si>
-    <t>H老师</t>
-  </si>
-  <si>
-    <t>Ac老师</t>
-  </si>
-  <si>
-    <t>U老师</t>
-  </si>
-  <si>
-    <t>Ag老师</t>
-  </si>
-  <si>
-    <t>L老师</t>
-  </si>
-  <si>
-    <t>E老师</t>
-  </si>
-  <si>
-    <t>Q老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ag老师,
-L老师,
-P老师,
+    <t xml:space="preserve">Ad老师,
+U老师,
+C老师,
+I老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Af老师,
+T老师,
+D老师,
+W老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K老师,
+J老师,
+B老师,
+Aa老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R老师,
+F老师,
+E老师,
 N老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X老师,
-O老师,
-F老师,
-A老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J老师,
-Ab老师,
-U老师,
-S老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V老师,
-B老师,
-Ad老师,
-Y老师,
 </t>
   </si>
 </sst>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31402017</v>
+        <v>31402025</v>
       </c>
       <c r="C2">
-        <v>3.158599</v>
+        <v>1.785455</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -564,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31402110</v>
+        <v>31402026</v>
       </c>
       <c r="C3">
-        <v>3.352063</v>
+        <v>2.802719</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -584,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31402111</v>
+        <v>31402027</v>
       </c>
       <c r="C4">
-        <v>1.966361</v>
+        <v>3.963973</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -604,16 +604,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31402092</v>
+        <v>31402028</v>
       </c>
       <c r="C5">
-        <v>3.287667</v>
+        <v>2.946965</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -624,16 +624,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31402093</v>
+        <v>31402029</v>
       </c>
       <c r="C6">
-        <v>2.743544</v>
+        <v>3.30639</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -644,16 +644,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31402094</v>
+        <v>31402030</v>
       </c>
       <c r="C7">
-        <v>2.813497</v>
+        <v>2.530878</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -664,16 +664,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31402095</v>
+        <v>31402031</v>
       </c>
       <c r="C8">
-        <v>3.963973</v>
+        <v>2.69269</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
@@ -684,16 +684,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31402013</v>
+        <v>31402048</v>
       </c>
       <c r="C9">
-        <v>1.980091</v>
+        <v>2.903145</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>39</v>
@@ -704,16 +704,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31402014</v>
+        <v>31402074</v>
       </c>
       <c r="C10">
-        <v>3.105346</v>
+        <v>2.393617</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -724,16 +724,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31402015</v>
+        <v>31402075</v>
       </c>
       <c r="C11">
-        <v>2.876825</v>
+        <v>3.263522</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -744,16 +744,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31402016</v>
+        <v>31402076</v>
       </c>
       <c r="C12">
-        <v>2.221068</v>
+        <v>3.255346</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -764,16 +764,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31402018</v>
+        <v>31402032</v>
       </c>
       <c r="C13">
-        <v>2.722936</v>
+        <v>2.570303</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -784,16 +784,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31402099</v>
+        <v>31402096</v>
       </c>
       <c r="C14">
-        <v>2.03597</v>
+        <v>2.720195</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -804,16 +804,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31402100</v>
+        <v>31402011</v>
       </c>
       <c r="C15">
-        <v>3.822373</v>
+        <v>2.059079</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -824,16 +824,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31402101</v>
+        <v>31402012</v>
       </c>
       <c r="C16">
-        <v>2.876221</v>
+        <v>3.104776</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -844,13 +844,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31402102</v>
+        <v>31402066</v>
       </c>
       <c r="C17">
-        <v>2.006024</v>
+        <v>3.711243</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -864,16 +864,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31402074</v>
+        <v>31402067</v>
       </c>
       <c r="C18">
-        <v>2.393617</v>
+        <v>2.198923</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -884,16 +884,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31402075</v>
+        <v>31402068</v>
       </c>
       <c r="C19">
-        <v>3.263522</v>
+        <v>2.043161</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -904,16 +904,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31402076</v>
+        <v>31402069</v>
       </c>
       <c r="C20">
-        <v>3.255346</v>
+        <v>2.810137</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -924,16 +924,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31402003</v>
+        <v>31402013</v>
       </c>
       <c r="C21">
-        <v>2.03597</v>
+        <v>1.980091</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>39</v>
@@ -944,16 +944,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31402049</v>
+        <v>31402014</v>
       </c>
       <c r="C22">
-        <v>2.610726</v>
+        <v>3.105346</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>39</v>
@@ -964,16 +964,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31402050</v>
+        <v>31402015</v>
       </c>
       <c r="C23">
-        <v>2.946965</v>
+        <v>2.876825</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
@@ -984,16 +984,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31402051</v>
+        <v>31402016</v>
       </c>
       <c r="C24">
-        <v>3.30639</v>
+        <v>2.221068</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>39</v>
@@ -1004,16 +1004,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31402052</v>
+        <v>31402018</v>
       </c>
       <c r="C25">
-        <v>2.530878</v>
+        <v>2.722936</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -1024,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31402090</v>
+        <v>31402044</v>
       </c>
       <c r="C26">
-        <v>2.69622</v>
+        <v>2.813497</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1044,16 +1044,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31402091</v>
+        <v>31402045</v>
       </c>
       <c r="C27">
-        <v>2.800326</v>
+        <v>3.548878</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -1063,20 +1063,20 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
+      <c r="B28">
+        <v>31402046</v>
+      </c>
+      <c r="C28">
+        <v>3.466454</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1084,39 +1084,39 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31402025</v>
+        <v>31402047</v>
       </c>
       <c r="C29">
-        <v>1.785455</v>
+        <v>3.352063</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>31402026</v>
-      </c>
-      <c r="C30">
-        <v>2.802719</v>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1124,16 +1124,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31402027</v>
+        <v>31402107</v>
       </c>
       <c r="C31">
-        <v>3.963973</v>
+        <v>1.966361</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
         <v>40</v>
@@ -1144,16 +1144,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31402028</v>
+        <v>31402108</v>
       </c>
       <c r="C32">
-        <v>2.946965</v>
+        <v>2.69622</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
         <v>40</v>
@@ -1164,16 +1164,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31402029</v>
+        <v>31402109</v>
       </c>
       <c r="C33">
-        <v>3.30639</v>
+        <v>3.466454</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>40</v>
@@ -1184,16 +1184,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31402030</v>
+        <v>31402099</v>
       </c>
       <c r="C34">
-        <v>2.530878</v>
+        <v>2.03597</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
@@ -1204,16 +1204,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31402031</v>
+        <v>31402100</v>
       </c>
       <c r="C35">
-        <v>2.69269</v>
+        <v>3.822373</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -1224,16 +1224,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31402048</v>
+        <v>31402101</v>
       </c>
       <c r="C36">
-        <v>2.903145</v>
+        <v>2.876221</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
@@ -1244,16 +1244,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31402103</v>
+        <v>31402102</v>
       </c>
       <c r="C37">
-        <v>2.405864</v>
+        <v>2.006024</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1264,16 +1264,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31402104</v>
+        <v>31402070</v>
       </c>
       <c r="C38">
-        <v>2.066867</v>
+        <v>1.991818</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -1284,16 +1284,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31402105</v>
+        <v>31402071</v>
       </c>
       <c r="C39">
-        <v>2.327287</v>
+        <v>1.980091</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -1304,16 +1304,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31402106</v>
+        <v>31402072</v>
       </c>
       <c r="C40">
-        <v>2.92994</v>
+        <v>2.722823</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -1324,16 +1324,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31402065</v>
+        <v>31402073</v>
       </c>
       <c r="C41">
-        <v>2.977976</v>
+        <v>3.399385</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -1350,10 +1350,10 @@
         <v>3.195427</v>
       </c>
       <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
         <v>17</v>
-      </c>
-      <c r="E42" t="s">
-        <v>30</v>
       </c>
       <c r="F42" t="s">
         <v>40</v>
@@ -1370,10 +1370,10 @@
         <v>2.729503</v>
       </c>
       <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
         <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
       </c>
       <c r="F43" t="s">
         <v>40</v>
@@ -1390,10 +1390,10 @@
         <v>3.385987</v>
       </c>
       <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
         <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -1410,10 +1410,10 @@
         <v>2.889759</v>
       </c>
       <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
         <v>17</v>
-      </c>
-      <c r="E45" t="s">
-        <v>30</v>
       </c>
       <c r="F45" t="s">
         <v>40</v>
@@ -1424,16 +1424,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31402004</v>
+        <v>31402040</v>
       </c>
       <c r="C46">
-        <v>3.711243</v>
+        <v>2.096884</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -1444,16 +1444,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31402005</v>
+        <v>31402041</v>
       </c>
       <c r="C47">
-        <v>1.964815</v>
+        <v>2.720973</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>40</v>
@@ -1464,16 +1464,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31402006</v>
+        <v>31402042</v>
       </c>
       <c r="C48">
-        <v>3.105346</v>
+        <v>2.088623</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
         <v>40</v>
@@ -1484,16 +1484,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31402007</v>
+        <v>31402043</v>
       </c>
       <c r="C49">
-        <v>2.353618</v>
+        <v>2.743544</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
         <v>40</v>
@@ -1504,16 +1504,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31402008</v>
+        <v>31402001</v>
       </c>
       <c r="C50">
-        <v>3.963973</v>
+        <v>2.56422</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -1524,16 +1524,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>31402009</v>
+        <v>31402002</v>
       </c>
       <c r="C51">
-        <v>2.720973</v>
+        <v>2.787896</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
         <v>40</v>
@@ -1544,16 +1544,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31402010</v>
+        <v>31402062</v>
       </c>
       <c r="C52">
-        <v>2.088623</v>
+        <v>2.378056</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
         <v>40</v>
@@ -1564,16 +1564,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31402021</v>
+        <v>31402063</v>
       </c>
       <c r="C53">
-        <v>2.56901</v>
+        <v>3.248428</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
         <v>40</v>
@@ -1584,16 +1584,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31402022</v>
+        <v>31402064</v>
       </c>
       <c r="C54">
-        <v>3.263522</v>
+        <v>3.250746</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
         <v>40</v>
@@ -1604,16 +1604,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31402023</v>
+        <v>31402092</v>
       </c>
       <c r="C55">
-        <v>3.255346</v>
+        <v>3.287667</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
         <v>40</v>
@@ -1624,16 +1624,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>31402024</v>
+        <v>31402093</v>
       </c>
       <c r="C56">
-        <v>3.033951</v>
+        <v>2.743544</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
         <v>40</v>
@@ -1643,20 +1643,20 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
+      <c r="B57">
+        <v>31402094</v>
+      </c>
+      <c r="C57">
+        <v>2.813497</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1664,39 +1664,39 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31402098</v>
+        <v>31402095</v>
       </c>
       <c r="C58">
-        <v>2.787896</v>
+        <v>3.963973</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>31402089</v>
-      </c>
-      <c r="C59">
-        <v>1.966361</v>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1710,10 +1710,10 @@
         <v>2.722936</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
         <v>41</v>
@@ -1730,10 +1730,10 @@
         <v>3.072115</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
         <v>41</v>
@@ -1750,10 +1750,10 @@
         <v>2.606954</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
         <v>41</v>
@@ -1764,16 +1764,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31402032</v>
+        <v>31402077</v>
       </c>
       <c r="C63">
-        <v>2.570303</v>
+        <v>3.033951</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -1784,16 +1784,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>31402096</v>
+        <v>31402078</v>
       </c>
       <c r="C64">
-        <v>2.720195</v>
+        <v>1.785455</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
         <v>41</v>
@@ -1804,13 +1804,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31402001</v>
+        <v>31402079</v>
       </c>
       <c r="C65">
-        <v>2.56422</v>
+        <v>2.802719</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -1824,13 +1824,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>31402002</v>
+        <v>31402080</v>
       </c>
       <c r="C66">
-        <v>2.787896</v>
+        <v>1.980091</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -1844,16 +1844,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>31402062</v>
+        <v>31402053</v>
       </c>
       <c r="C67">
-        <v>2.378056</v>
+        <v>3.574038</v>
       </c>
       <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
         <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
@@ -1864,16 +1864,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31402063</v>
+        <v>31402054</v>
       </c>
       <c r="C68">
-        <v>3.248428</v>
+        <v>2.878221</v>
       </c>
       <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
         <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>19</v>
       </c>
       <c r="F68" t="s">
         <v>41</v>
@@ -1884,16 +1884,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31402064</v>
+        <v>31402055</v>
       </c>
       <c r="C69">
-        <v>3.250746</v>
+        <v>2.79624</v>
       </c>
       <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
         <v>24</v>
-      </c>
-      <c r="E69" t="s">
-        <v>19</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -1904,16 +1904,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31402082</v>
+        <v>31402056</v>
       </c>
       <c r="C70">
-        <v>2.691692</v>
+        <v>2.842877</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
         <v>41</v>
@@ -1924,16 +1924,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31402083</v>
+        <v>31402057</v>
       </c>
       <c r="C71">
-        <v>2.262539</v>
+        <v>3.053205</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F71" t="s">
         <v>41</v>
@@ -1944,16 +1944,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31402084</v>
+        <v>31402058</v>
       </c>
       <c r="C72">
-        <v>2.006024</v>
+        <v>3.158599</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F72" t="s">
         <v>41</v>
@@ -1964,16 +1964,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31402085</v>
+        <v>31402019</v>
       </c>
       <c r="C73">
-        <v>2.405864</v>
+        <v>3.072115</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
         <v>41</v>
@@ -1984,16 +1984,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>31402086</v>
+        <v>31402020</v>
       </c>
       <c r="C74">
-        <v>3.352063</v>
+        <v>2.639936</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
         <v>41</v>
@@ -2004,16 +2004,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>31402087</v>
+        <v>31402082</v>
       </c>
       <c r="C75">
-        <v>2.327287</v>
+        <v>2.691692</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F75" t="s">
         <v>41</v>
@@ -2024,16 +2024,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>31402088</v>
+        <v>31402083</v>
       </c>
       <c r="C76">
-        <v>2.92994</v>
+        <v>2.262539</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
         <v>41</v>
@@ -2044,16 +2044,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>31402077</v>
+        <v>31402084</v>
       </c>
       <c r="C77">
-        <v>3.033951</v>
+        <v>2.006024</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
         <v>41</v>
@@ -2064,16 +2064,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31402078</v>
+        <v>31402085</v>
       </c>
       <c r="C78">
-        <v>1.785455</v>
+        <v>2.405864</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
@@ -2084,16 +2084,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31402079</v>
+        <v>31402086</v>
       </c>
       <c r="C79">
-        <v>2.802719</v>
+        <v>3.352063</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
         <v>41</v>
@@ -2104,16 +2104,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31402080</v>
+        <v>31402087</v>
       </c>
       <c r="C80">
-        <v>1.980091</v>
+        <v>2.327287</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
@@ -2124,16 +2124,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31402066</v>
+        <v>31402088</v>
       </c>
       <c r="C81">
-        <v>3.711243</v>
+        <v>2.92994</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F81" t="s">
         <v>41</v>
@@ -2144,16 +2144,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31402067</v>
+        <v>31402065</v>
       </c>
       <c r="C82">
-        <v>2.198923</v>
+        <v>2.977976</v>
       </c>
       <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
         <v>27</v>
-      </c>
-      <c r="E82" t="s">
-        <v>34</v>
       </c>
       <c r="F82" t="s">
         <v>41</v>
@@ -2164,16 +2164,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31402068</v>
+        <v>31402033</v>
       </c>
       <c r="C83">
-        <v>2.043161</v>
+        <v>2.180731</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
         <v>41</v>
@@ -2184,16 +2184,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31402069</v>
+        <v>31402081</v>
       </c>
       <c r="C84">
-        <v>2.810137</v>
+        <v>2.281346</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
         <v>41</v>
@@ -2204,16 +2204,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>31402081</v>
+        <v>31402038</v>
       </c>
       <c r="C85">
-        <v>2.281346</v>
+        <v>2.935714</v>
       </c>
       <c r="D85" t="s">
         <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
         <v>41</v>
@@ -2223,40 +2223,40 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
+      <c r="B86">
+        <v>31402039</v>
+      </c>
+      <c r="C86">
+        <v>3.290705</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>31402038</v>
-      </c>
-      <c r="C87">
-        <v>2.935714</v>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2264,16 +2264,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>31402039</v>
+        <v>31402003</v>
       </c>
       <c r="C88">
-        <v>3.290705</v>
+        <v>2.03597</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -2284,16 +2284,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31402040</v>
+        <v>31402049</v>
       </c>
       <c r="C89">
-        <v>2.096884</v>
+        <v>2.610726</v>
       </c>
       <c r="D89" t="s">
         <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -2304,16 +2304,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31402041</v>
+        <v>31402050</v>
       </c>
       <c r="C90">
-        <v>2.720973</v>
+        <v>2.946965</v>
       </c>
       <c r="D90" t="s">
         <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -2324,16 +2324,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31402042</v>
+        <v>31402051</v>
       </c>
       <c r="C91">
-        <v>2.088623</v>
+        <v>3.30639</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
         <v>42</v>
@@ -2344,16 +2344,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31402043</v>
+        <v>31402052</v>
       </c>
       <c r="C92">
-        <v>2.743544</v>
+        <v>2.530878</v>
       </c>
       <c r="D92" t="s">
         <v>30</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
         <v>42</v>
@@ -2364,16 +2364,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31402044</v>
+        <v>31402103</v>
       </c>
       <c r="C93">
-        <v>2.813497</v>
+        <v>2.405864</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
         <v>42</v>
@@ -2384,16 +2384,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31402045</v>
+        <v>31402104</v>
       </c>
       <c r="C94">
-        <v>3.548878</v>
+        <v>2.066867</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
         <v>42</v>
@@ -2404,16 +2404,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31402046</v>
+        <v>31402105</v>
       </c>
       <c r="C95">
-        <v>3.466454</v>
+        <v>2.327287</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
         <v>42</v>
@@ -2424,16 +2424,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31402047</v>
+        <v>31402106</v>
       </c>
       <c r="C96">
-        <v>3.352063</v>
+        <v>2.92994</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
         <v>42</v>
@@ -2444,16 +2444,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31402019</v>
+        <v>31402097</v>
       </c>
       <c r="C97">
-        <v>3.072115</v>
+        <v>2.56422</v>
       </c>
       <c r="D97" t="s">
         <v>32</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -2464,16 +2464,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31402020</v>
+        <v>31402010</v>
       </c>
       <c r="C98">
-        <v>2.639936</v>
+        <v>2.088623</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F98" t="s">
         <v>42</v>
@@ -2484,16 +2484,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31402097</v>
+        <v>31402021</v>
       </c>
       <c r="C99">
-        <v>2.56422</v>
+        <v>2.56901</v>
       </c>
       <c r="D99" t="s">
         <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F99" t="s">
         <v>42</v>
@@ -2504,16 +2504,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31402070</v>
+        <v>31402022</v>
       </c>
       <c r="C100">
-        <v>1.991818</v>
+        <v>3.263522</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
         <v>42</v>
@@ -2524,16 +2524,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31402071</v>
+        <v>31402023</v>
       </c>
       <c r="C101">
-        <v>1.980091</v>
+        <v>3.255346</v>
       </c>
       <c r="D101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
         <v>42</v>
@@ -2544,16 +2544,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31402072</v>
+        <v>31402024</v>
       </c>
       <c r="C102">
-        <v>2.722823</v>
+        <v>3.033951</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -2564,16 +2564,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31402073</v>
+        <v>31402017</v>
       </c>
       <c r="C103">
-        <v>3.399385</v>
+        <v>3.158599</v>
       </c>
       <c r="D103" t="s">
         <v>34</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F103" t="s">
         <v>42</v>
@@ -2584,16 +2584,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31402107</v>
+        <v>31402110</v>
       </c>
       <c r="C104">
-        <v>1.966361</v>
+        <v>3.352063</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -2604,16 +2604,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31402108</v>
+        <v>31402111</v>
       </c>
       <c r="C105">
-        <v>2.69622</v>
+        <v>1.966361</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F105" t="s">
         <v>42</v>
@@ -2624,16 +2624,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>31402109</v>
+        <v>31402004</v>
       </c>
       <c r="C106">
-        <v>3.466454</v>
+        <v>3.711243</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
@@ -2644,13 +2644,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31402033</v>
+        <v>31402005</v>
       </c>
       <c r="C107">
-        <v>2.180731</v>
+        <v>1.964815</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -2664,16 +2664,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31402011</v>
+        <v>31402006</v>
       </c>
       <c r="C108">
-        <v>2.059079</v>
+        <v>3.105346</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -2684,16 +2684,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>31402012</v>
+        <v>31402007</v>
       </c>
       <c r="C109">
-        <v>3.104776</v>
+        <v>2.353618</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -2704,16 +2704,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>31402053</v>
+        <v>31402008</v>
       </c>
       <c r="C110">
-        <v>3.574038</v>
+        <v>3.963973</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -2724,16 +2724,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>31402054</v>
+        <v>31402009</v>
       </c>
       <c r="C111">
-        <v>2.878221</v>
+        <v>2.720973</v>
       </c>
       <c r="D111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -2744,16 +2744,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31402055</v>
+        <v>31402098</v>
       </c>
       <c r="C112">
-        <v>2.79624</v>
+        <v>2.787896</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -2764,16 +2764,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31402056</v>
+        <v>31402089</v>
       </c>
       <c r="C113">
-        <v>2.842877</v>
+        <v>1.966361</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -2784,16 +2784,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>31402057</v>
+        <v>31402090</v>
       </c>
       <c r="C114">
-        <v>3.053205</v>
+        <v>2.69622</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -2804,16 +2804,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31402058</v>
+        <v>31402091</v>
       </c>
       <c r="C115">
-        <v>3.158599</v>
+        <v>2.800326</v>
       </c>
       <c r="D115" t="s">
         <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
